--- a/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
+++ b/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16060"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Search Test Cases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="230">
   <si>
     <t>ID</t>
   </si>
@@ -350,7 +350,7 @@
     <t>TC19</t>
   </si>
   <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number &lt; 10</t>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number &lt; 8</t>
   </si>
   <si>
     <t>1. Thêm sản phẩm vào giỏ hàng 
@@ -376,7 +376,7 @@
     <t>TC20</t>
   </si>
   <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number &gt; 10</t>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number &gt; 12</t>
   </si>
   <si>
     <t>1. Thêm sản phẩm vào giỏ hàng 
@@ -734,6 +734,28 @@
     <t>TC35</t>
   </si>
   <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập city là khoảng trắng</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập city là khoảng trắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: </t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
     <t>Kiểm thử phương thức giao hàng khi mua hàng</t>
   </si>
   <si>
@@ -744,7 +766,7 @@
 4. Chọn phương thức giao hàng</t>
   </si>
   <si>
-    <t>TC36</t>
+    <t>TC37</t>
   </si>
   <si>
     <t>Kiểm thử phương thức thanh toán khi mua hàng</t>
@@ -758,7 +780,7 @@
 5. Chọn phương thức thanh toán</t>
   </si>
   <si>
-    <t>TC37</t>
+    <t>TC38</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập đầy đủ thông tin</t>
@@ -782,7 +804,7 @@
     <t>Hiện thẻ vừa thêm</t>
   </si>
   <si>
-    <t>TC38</t>
+    <t>TC39</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Name</t>
@@ -803,7 +825,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC39</t>
+    <t>TC40</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Card Number</t>
@@ -826,7 +848,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter your card number"</t>
   </si>
   <si>
-    <t>TC40</t>
+    <t>TC41</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Expiry Month</t>
@@ -849,7 +871,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter an Expiry Month"</t>
   </si>
   <si>
-    <t>TC41</t>
+    <t>TC42</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Expiry Year</t>
@@ -867,7 +889,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter an Expiry Year"</t>
   </si>
   <si>
-    <t>TC42</t>
+    <t>TC43</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập Name là khoảng trắng</t>
@@ -888,7 +910,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC43</t>
+    <t>TC44</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập Card Number là khoảng trắng</t>
@@ -912,7 +934,7 @@
     <t>Không nhập được khoảng trắng</t>
   </si>
   <si>
-    <t>TC44</t>
+    <t>TC45</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập độ dài Card Number &lt; 16</t>
@@ -936,7 +958,7 @@
     <t>Hiển thị thông báo cảnh báo :   "  Please enter a valid sixteen digit card number."</t>
   </si>
   <si>
-    <t>TC45</t>
+    <t>TC46</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập độ dài Card Number &gt; 16</t>
@@ -957,7 +979,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC46</t>
+    <t>TC47</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà coupon không hợp lệ</t>
@@ -978,7 +1000,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Invalid coupon."</t>
   </si>
   <si>
-    <t>TC47</t>
+    <t>TC48</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà độ dài coupon &lt; 10</t>
@@ -999,7 +1021,7 @@
     <t>Hiển thị thông báo cảnh báo :  " Coupon code must be 10 characters long."</t>
   </si>
   <si>
-    <t>TC48</t>
+    <t>TC49</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà độ dài coupon &gt; 10</t>
@@ -1017,7 +1039,7 @@
     <t>n(XRwh7ZQrr</t>
   </si>
   <si>
-    <t>TC49</t>
+    <t>TC50</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà coupon hợp lệ</t>
@@ -1039,7 +1061,7 @@
     <t>Hiển thị thông báo :   "Your discount of 30% will be applied during checkout."</t>
   </si>
   <si>
-    <t>TC50</t>
+    <t>TC51</t>
   </si>
   <si>
     <t>Kiểm thử thanh toán thành công khi mua hàng</t>
@@ -1062,10 +1084,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1245,7 +1267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1261,6 +1283,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,6 +1524,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1509,6 +1552,17 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1540,32 +1594,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1690,16 +1718,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1708,7 +1736,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1732,16 +1760,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1750,89 +1778,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1842,34 +1870,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2218,20 +2255,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="28.8203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.46875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.4375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.0078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.8190476190476" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.4666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.1809523809524" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.4380952380952" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.0095238095238" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2251,985 +2288,1005 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="100" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" ht="100" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="100" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="100" customHeight="1" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="100" customHeight="1" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="100" customHeight="1" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="100" customHeight="1" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" ht="100" customHeight="1" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="100" customHeight="1" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="82" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="F13" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="75" spans="1:6">
+      <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="102" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="F14" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="112.5" spans="1:6">
+      <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="143" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="F15" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="131.25" spans="1:6">
+      <c r="A16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="164" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="F16" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="150" spans="1:6">
+      <c r="A17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="164" spans="1:6">
-      <c r="A18" s="7" t="s">
+      <c r="F17" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="150" spans="1:6">
+      <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="143" spans="1:6">
-      <c r="A19" s="7" t="s">
+      <c r="F18" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="131.25" spans="1:6">
+      <c r="A19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" ht="143" spans="1:6">
-      <c r="A20" s="7" t="s">
+      <c r="F19" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="131.25" spans="1:6">
+      <c r="A20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="164" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="150" spans="1:6">
+      <c r="A21" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="164" spans="1:6">
-      <c r="A22" s="7" t="s">
+      <c r="F21" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="150" spans="1:6">
+      <c r="A22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="143" spans="1:6">
-      <c r="A23" s="7" t="s">
+      <c r="F22" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="131.25" spans="1:6">
+      <c r="A23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" ht="164" spans="1:6">
-      <c r="A24" s="7" t="s">
+    <row r="24" ht="150" spans="1:6">
+      <c r="A24" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" ht="164" spans="1:6">
-      <c r="A25" s="7" t="s">
+    <row r="25" ht="150" spans="1:6">
+      <c r="A25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" ht="164" spans="1:6">
-      <c r="A26" s="7" t="s">
+    <row r="26" ht="150" spans="1:6">
+      <c r="A26" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" ht="123" spans="1:6">
-      <c r="A27" s="7" t="s">
+    <row r="27" ht="112.5" spans="1:6">
+      <c r="A27" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" ht="164" spans="1:6">
-      <c r="A28" s="7" t="s">
+      <c r="F27" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="150" spans="1:6">
+      <c r="A28" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" ht="143" spans="1:6">
-      <c r="A29" s="7" t="s">
+    <row r="29" ht="131.25" spans="1:6">
+      <c r="A29" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" ht="164" spans="1:6">
-      <c r="A30" s="7" t="s">
+      <c r="F29" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" ht="150" spans="1:6">
+      <c r="A30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" ht="225" spans="1:6">
-      <c r="A31" s="7" t="s">
+      <c r="F30" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" ht="206.25" spans="1:6">
+      <c r="A31" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" ht="123" spans="1:6">
-      <c r="A32" s="7" t="s">
+      <c r="F31" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" ht="112.5" spans="1:6">
+      <c r="A32" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" ht="143" spans="1:6">
-      <c r="A33" s="7" t="s">
+      <c r="F32" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" ht="131.25" spans="1:6">
+      <c r="A33" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" ht="143" spans="1:6">
-      <c r="A34" s="7" t="s">
+    <row r="34" ht="131.25" spans="1:6">
+      <c r="A34" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" ht="143" spans="1:6">
-      <c r="A35" s="7" t="s">
+    <row r="35" ht="131.25" spans="1:6">
+      <c r="A35" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" ht="143" spans="1:6">
-      <c r="A36" s="7" t="s">
+    <row r="36" ht="131.25" spans="1:6">
+      <c r="A36" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" ht="102" spans="1:6">
-      <c r="A37" s="7" t="s">
+    <row r="37" ht="131.25" spans="1:6">
+      <c r="A37" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" ht="93.75" spans="1:6">
+      <c r="A38" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" ht="123" spans="1:6">
-      <c r="A38" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
+      <c r="F38" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" ht="112.5" spans="1:6">
+      <c r="A39" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" ht="143" spans="1:6">
-      <c r="A39" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="F39" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" ht="131.25" spans="1:6">
+      <c r="A40" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" ht="143" spans="1:6">
-      <c r="A40" s="7" t="s">
+      <c r="B40" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" ht="131.25" spans="1:6">
+      <c r="A41" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" ht="143" spans="1:6">
-      <c r="A41" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" ht="131.25" spans="1:6">
+      <c r="A42" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" ht="143" spans="1:6">
-      <c r="A42" s="7" t="s">
+      <c r="B42" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="F42" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" ht="131.25" spans="1:6">
+      <c r="A43" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" ht="143" spans="1:6">
-      <c r="A43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" ht="143" spans="1:6">
-      <c r="A44" s="7" t="s">
+      <c r="F43" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" ht="131.25" spans="1:6">
+      <c r="A44" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="F44" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" ht="131.25" spans="1:6">
+      <c r="A45" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F45" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" ht="143" spans="1:6">
-      <c r="A45" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45" s="8" t="s">
+    <row r="46" ht="150" spans="1:6">
+      <c r="A46" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" ht="143" spans="1:6">
-      <c r="A46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="F46" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" ht="131.25" spans="1:6">
+      <c r="A47" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" ht="143" spans="1:6">
-      <c r="A47" s="7" t="s">
+      <c r="B47" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" ht="143" spans="1:6">
-      <c r="A48" s="7" t="s">
+      <c r="F47" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" ht="131.25" spans="1:6">
+      <c r="A48" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" ht="131.25" spans="1:6">
+      <c r="A49" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" ht="143" spans="1:6">
-      <c r="A49" s="7" t="s">
+      <c r="B49" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="F49" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" ht="131.25" spans="1:6">
+      <c r="A50" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" ht="143" spans="1:6">
-      <c r="A50" s="7" t="s">
+      <c r="B50" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" ht="164" spans="1:6">
-      <c r="A51" s="7" t="s">
+      <c r="F50" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" ht="131.25" spans="1:6">
+      <c r="A51" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" ht="150" spans="1:6">
+      <c r="A52" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" ht="143" spans="1:6">
-      <c r="A52" s="7" t="s">
+      <c r="B52" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" ht="131.25" spans="1:6">
+      <c r="A53" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>11</v>
       </c>
     </row>

--- a/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
+++ b/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowHeight="18285"/>
   </bookViews>
   <sheets>
     <sheet name="Search Test Cases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -350,14 +350,89 @@
     <t>TC19</t>
   </si>
   <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number &lt; 8</t>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá ngắn</t>
   </si>
   <si>
     <t>1. Thêm sản phẩm vào giỏ hàng 
 2. Mở giỏ hàng
 2. Nhấn checkout để sang trang chọn địa chỉ
 3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number &lt; 10</t>
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number &lt; 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 086733
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cảnh báo :   "Mobile number must match {{range}} format."</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối thiểu</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number cận tối thiểu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hợp lệ</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number trung bình</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number = 8(độ dài trung bình)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 08673336
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number cận tối đa</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number cận tối đa</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -370,13 +445,23 @@
 State: Thanh Tri</t>
   </si>
   <si>
-    <t>Hiển thị thông báo cảnh báo :   "Mobile number must match {{range}} format."</t>
-  </si>
-  <si>
-    <t>TC20</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number &gt; 12</t>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối đa</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile numbertối đa</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá dài</t>
   </si>
   <si>
     <t>1. Thêm sản phẩm vào giỏ hàng 
@@ -396,94 +481,68 @@
 State: Thanh Tri</t>
   </si>
   <si>
-    <t>TC21</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number dạng XXX-XXX-XXXX</t>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự . ở cuối</t>
   </si>
   <si>
     <t>1. Thêm sản phẩm vào giỏ hàng 
 2. Mở giỏ hàng
 2. Nhấn checkout để sang trang chọn địa chỉ
 3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập mobile number dạng XXX-XXX-XXXX</t>
+4. Nhập đầy đủ thông tin và nhập mobile number với ký tự . ở cuối</t>
   </si>
   <si>
     <t>Country: Viet Nam
 Name: Phan Hong Quan
-Mobile Number: 086-733-3697
+Mobile Number: 08673333.69
 Zip Code: 10000
 Address: Tan Trieu, Thanh Tri, Ha Noi
 City: Ha Noi
 State: Thanh Tri</t>
   </si>
   <si>
-    <t>Chấp nhận SDT này</t>
+    <t>Hiện thi thông báo lỗi</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>TC22</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number dạng XXX.XXX.XXXX</t>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number chứa các kí tự chữ</t>
   </si>
   <si>
     <t>1. Thêm sản phẩm vào giỏ hàng 
 2. Mở giỏ hàng
 2. Nhấn checkout để sang trang chọn địa chỉ
 3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập mobile number dạng XXX.XXX.XXXX</t>
+4. Nhập đầy đủ thông tin và nhập mobile number chứa các ký tự chữ</t>
   </si>
   <si>
     <t xml:space="preserve">
 Country: Viet Nam
 Name: Phan Hong Quan
-Mobile Number: 086.733.3697
+Mobile Number: 777e7
 Zip Code: 10000
 Address: Tan Trieu, Thanh Tri, Ha Noi
 City: Ha Noi
 State: Thanh Tri</t>
   </si>
   <si>
-    <t>TC23</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number chứa các kí tự chữ</t>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự + ở đầu</t>
   </si>
   <si>
     <t>1. Thêm sản phẩm vào giỏ hàng 
 2. Mở giỏ hàng
 2. Nhấn checkout để sang trang chọn địa chỉ
 3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập mobile number chứa các ký tự chữ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867eee697
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Không nhập được các ký tự chữ</t>
-  </si>
-  <si>
-    <t>TC24</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với định dạng quốc tế</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập mobile number với định dạng quốc tế</t>
+4. Nhập đầy đủ thông tin và nhập mobile number với ký tự đặc biệt</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -496,10 +555,7 @@
 State: Thanh Tri</t>
   </si>
   <si>
-    <t>Không lỗi với SDT định dạng quốc tế của Việt Nam</t>
-  </si>
-  <si>
-    <t>TC25</t>
+    <t>TC28</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập zip code</t>
@@ -523,7 +579,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a Zip code."</t>
   </si>
   <si>
-    <t>TC26</t>
+    <t>TC29</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự đặc biệt</t>
@@ -549,7 +605,7 @@
     <t>Không chấp nhận kí tự đặc biệt</t>
   </si>
   <si>
-    <t>TC27</t>
+    <t>TC30</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập address</t>
@@ -574,7 +630,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide an address."</t>
   </si>
   <si>
-    <t>TC28</t>
+    <t>TC31</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &lt; 160</t>
@@ -590,7 +646,7 @@
     <t>Không hiện cảnh báo</t>
   </si>
   <si>
-    <t>TC29</t>
+    <t>TC32</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &gt; 160</t>
@@ -616,7 +672,7 @@
     <t>Không nhập được thêm nếu độ dài hơn 160</t>
   </si>
   <si>
-    <t>TC30</t>
+    <t>TC33</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập city</t>
@@ -640,7 +696,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a city."</t>
   </si>
   <si>
-    <t>TC31</t>
+    <t>TC34</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập country là khoảng trắng</t>
@@ -662,7 +718,7 @@
 City: Ha Noi</t>
   </si>
   <si>
-    <t>TC32</t>
+    <t>TC35</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập name là khoảng trắng</t>
@@ -684,7 +740,7 @@
 City: Ha Noi</t>
   </si>
   <si>
-    <t>TC33</t>
+    <t>TC36</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zipcode là khoảng trắng</t>
@@ -709,7 +765,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a zipcode."</t>
   </si>
   <si>
-    <t>TC34</t>
+    <t>TC37</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập address là khoảng trắng</t>
@@ -731,7 +787,7 @@
 City: Ha Noi</t>
   </si>
   <si>
-    <t>TC35</t>
+    <t>TC38</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập city là khoảng trắng</t>
@@ -753,7 +809,7 @@
 City: </t>
   </si>
   <si>
-    <t>TC36</t>
+    <t>TC39</t>
   </si>
   <si>
     <t>Kiểm thử phương thức giao hàng khi mua hàng</t>
@@ -766,7 +822,7 @@
 4. Chọn phương thức giao hàng</t>
   </si>
   <si>
-    <t>TC37</t>
+    <t>TC40</t>
   </si>
   <si>
     <t>Kiểm thử phương thức thanh toán khi mua hàng</t>
@@ -780,7 +836,7 @@
 5. Chọn phương thức thanh toán</t>
   </si>
   <si>
-    <t>TC38</t>
+    <t>TC41</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập đầy đủ thông tin</t>
@@ -804,7 +860,7 @@
     <t>Hiện thẻ vừa thêm</t>
   </si>
   <si>
-    <t>TC39</t>
+    <t>TC42</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Name</t>
@@ -825,7 +881,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC40</t>
+    <t>TC43</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Card Number</t>
@@ -848,7 +904,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter your card number"</t>
   </si>
   <si>
-    <t>TC41</t>
+    <t>TC44</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Expiry Month</t>
@@ -871,7 +927,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter an Expiry Month"</t>
   </si>
   <si>
-    <t>TC42</t>
+    <t>TC45</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Expiry Year</t>
@@ -889,7 +945,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter an Expiry Year"</t>
   </si>
   <si>
-    <t>TC43</t>
+    <t>TC46</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập Name là khoảng trắng</t>
@@ -910,7 +966,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC44</t>
+    <t>TC47</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập Card Number là khoảng trắng</t>
@@ -934,7 +990,7 @@
     <t>Không nhập được khoảng trắng</t>
   </si>
   <si>
-    <t>TC45</t>
+    <t>TC48</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập độ dài Card Number &lt; 16</t>
@@ -958,7 +1014,7 @@
     <t>Hiển thị thông báo cảnh báo :   "  Please enter a valid sixteen digit card number."</t>
   </si>
   <si>
-    <t>TC46</t>
+    <t>TC49</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập độ dài Card Number &gt; 16</t>
@@ -979,7 +1035,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC47</t>
+    <t>TC50</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà coupon không hợp lệ</t>
@@ -1000,7 +1056,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Invalid coupon."</t>
   </si>
   <si>
-    <t>TC48</t>
+    <t>TC51</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà độ dài coupon &lt; 10</t>
@@ -1021,7 +1077,7 @@
     <t>Hiển thị thông báo cảnh báo :  " Coupon code must be 10 characters long."</t>
   </si>
   <si>
-    <t>TC49</t>
+    <t>TC52</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà độ dài coupon &gt; 10</t>
@@ -1039,7 +1095,7 @@
     <t>n(XRwh7ZQrr</t>
   </si>
   <si>
-    <t>TC50</t>
+    <t>TC53</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà coupon hợp lệ</t>
@@ -1061,7 +1117,7 @@
     <t>Hiển thị thông báo :   "Your discount of 30% will be applied during checkout."</t>
   </si>
   <si>
-    <t>TC51</t>
+    <t>TC54</t>
   </si>
   <si>
     <t>Kiểm thử thanh toán thành công khi mua hàng</t>
@@ -1077,6 +1133,22 @@
   </si>
   <si>
     <t>Hiển thị thông báo :   "Thank you for your purchase!"</t>
+  </si>
+  <si>
+    <t>TC55</t>
+  </si>
+  <si>
+    <t>Kiểm thử thanh toán thành công khi mua hàng với mã giảm giá hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Chọn địa chỉ và nhấn Continue
+4. Chọn phương thức giao hàng và nhấn Continue
+5. Chọn phương thức thanh toán 
+6. Nhập coupon và nhấn Redeem
+6. Nhấn 'Place your order and pay'</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1283,12 +1355,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,7 +1802,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1760,16 +1826,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1778,89 +1844,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1891,22 +1957,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2255,10 +2312,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -2357,17 +2414,17 @@
       </c>
     </row>
     <row r="6" ht="100" customHeight="1" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -2670,346 +2727,350 @@
         <v>89</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="150" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="150" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="150" spans="1:6">
+      <c r="A25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="150" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="131.25" spans="1:6">
-      <c r="A23" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" ht="150" spans="1:6">
-      <c r="A24" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" ht="150" spans="1:6">
-      <c r="A25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" ht="150" spans="1:6">
-      <c r="A26" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="F26" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="131.25" spans="1:6">
+      <c r="A27" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" ht="112.5" spans="1:6">
-      <c r="A27" s="9" t="s">
+      <c r="E27" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="F27" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="28" ht="150" spans="1:6">
       <c r="A28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="E28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" ht="150" spans="1:6">
+      <c r="A29" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="D29" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" ht="131.25" spans="1:6">
-      <c r="A29" s="9" t="s">
+      <c r="E29" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" ht="112.5" spans="1:6">
+      <c r="A30" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" ht="150" spans="1:6">
-      <c r="A30" s="9" t="s">
+      <c r="F30" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" ht="150" spans="1:6">
+      <c r="A31" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" ht="131.25" spans="1:6">
+      <c r="A32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" ht="150" spans="1:6">
+      <c r="A33" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" ht="206.25" spans="1:6">
-      <c r="A31" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" ht="112.5" spans="1:6">
-      <c r="A32" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" ht="131.25" spans="1:6">
-      <c r="A33" s="9" t="s">
+      <c r="F33" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="206.25" spans="1:6">
+      <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" ht="131.25" spans="1:6">
-      <c r="A34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="F34" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" ht="112.5" spans="1:6">
+      <c r="A35" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" ht="131.25" spans="1:6">
-      <c r="A35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="E35" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>95</v>
+      <c r="F35" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="131.25" spans="1:6">
       <c r="A36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="E36" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>95</v>
+        <v>70</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" ht="131.25" spans="1:6">
       <c r="A37" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="E37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" ht="131.25" spans="1:6">
+      <c r="A38" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" ht="93.75" spans="1:6">
-      <c r="A38" s="9" t="s">
+      <c r="D38" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="F38" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" ht="131.25" spans="1:6">
+      <c r="A39" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" ht="112.5" spans="1:6">
-      <c r="A39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="10"/>
       <c r="E39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40" ht="131.25" spans="1:6">
@@ -3026,47 +3087,43 @@
         <v>169</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" ht="93.75" spans="1:6">
+      <c r="A41" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" ht="131.25" spans="1:6">
-      <c r="A41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" ht="112.5" spans="1:6">
+      <c r="A42" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" ht="131.25" spans="1:6">
-      <c r="A42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>178</v>
-      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="10" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>11</v>
@@ -3074,19 +3131,19 @@
     </row>
     <row r="43" ht="131.25" spans="1:6">
       <c r="A43" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>11</v>
@@ -3094,19 +3151,19 @@
     </row>
     <row r="44" ht="131.25" spans="1:6">
       <c r="A44" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>11</v>
@@ -3114,39 +3171,39 @@
     </row>
     <row r="45" ht="131.25" spans="1:6">
       <c r="A45" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="F45" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" ht="131.25" spans="1:6">
+      <c r="A46" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" ht="150" spans="1:6">
-      <c r="A46" s="9" t="s">
+      <c r="D46" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>11</v>
@@ -3154,19 +3211,19 @@
     </row>
     <row r="47" ht="131.25" spans="1:6">
       <c r="A47" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>11</v>
@@ -3174,39 +3231,39 @@
     </row>
     <row r="48" ht="131.25" spans="1:6">
       <c r="A48" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" ht="150" spans="1:6">
+      <c r="A49" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" ht="131.25" spans="1:6">
-      <c r="A49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>11</v>
@@ -3214,19 +3271,19 @@
     </row>
     <row r="50" ht="131.25" spans="1:6">
       <c r="A50" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>11</v>
@@ -3234,39 +3291,39 @@
     </row>
     <row r="51" ht="131.25" spans="1:6">
       <c r="A51" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" ht="131.25" spans="1:6">
+      <c r="A52" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" ht="150" spans="1:6">
-      <c r="A52" s="9" t="s">
+      <c r="E52" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>11</v>
@@ -3274,19 +3331,99 @@
     </row>
     <row r="53" ht="131.25" spans="1:6">
       <c r="A53" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="F53" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" ht="131.25" spans="1:6">
+      <c r="A54" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="D54" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" ht="150" spans="1:6">
+      <c r="A55" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" ht="131.25" spans="1:6">
+      <c r="A56" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" ht="150" spans="1:6">
+      <c r="A57" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>11</v>
       </c>
     </row>

--- a/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
+++ b/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="244">
   <si>
     <t>ID</t>
   </si>
@@ -548,11 +548,14 @@
     <t xml:space="preserve">
 Country: Viet Nam
 Name: Phan Hong Quan
-Mobile Number: +84867333697
+Mobile Number: +11111111 
 Zip Code: 10000
 Address: Tan Trieu, Thanh Tri, Ha Noi
 City: Ha Noi
 State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không nhập được ký tự +</t>
   </si>
   <si>
     <t>TC28</t>
@@ -2314,8 +2317,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -2867,7 +2870,7 @@
         <v>119</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>111</v>
@@ -2875,19 +2878,19 @@
     </row>
     <row r="30" ht="112.5" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>11</v>
@@ -2895,19 +2898,19 @@
     </row>
     <row r="31" ht="150" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>111</v>
@@ -2915,19 +2918,19 @@
     </row>
     <row r="32" ht="131.25" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>11</v>
@@ -2935,19 +2938,19 @@
     </row>
     <row r="33" ht="150" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>11</v>
@@ -2955,19 +2958,19 @@
     </row>
     <row r="34" ht="206.25" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>11</v>
@@ -2975,19 +2978,19 @@
     </row>
     <row r="35" ht="112.5" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>11</v>
@@ -2995,16 +2998,16 @@
     </row>
     <row r="36" ht="131.25" spans="1:6">
       <c r="A36" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>70</v>
@@ -3015,16 +3018,16 @@
     </row>
     <row r="37" ht="131.25" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>75</v>
@@ -3035,19 +3038,19 @@
     </row>
     <row r="38" ht="131.25" spans="1:6">
       <c r="A38" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>111</v>
@@ -3055,19 +3058,19 @@
     </row>
     <row r="39" ht="131.25" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>111</v>
@@ -3075,19 +3078,19 @@
     </row>
     <row r="40" ht="131.25" spans="1:6">
       <c r="A40" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>111</v>
@@ -3095,13 +3098,13 @@
     </row>
     <row r="41" ht="93.75" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10" t="s">
@@ -3113,13 +3116,13 @@
     </row>
     <row r="42" ht="112.5" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10" t="s">
@@ -3131,19 +3134,19 @@
     </row>
     <row r="43" ht="131.25" spans="1:6">
       <c r="A43" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>11</v>
@@ -3151,16 +3154,16 @@
     </row>
     <row r="44" ht="131.25" spans="1:6">
       <c r="A44" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>75</v>
@@ -3171,19 +3174,19 @@
     </row>
     <row r="45" ht="131.25" spans="1:6">
       <c r="A45" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>11</v>
@@ -3191,19 +3194,19 @@
     </row>
     <row r="46" ht="131.25" spans="1:6">
       <c r="A46" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>11</v>
@@ -3211,19 +3214,19 @@
     </row>
     <row r="47" ht="131.25" spans="1:6">
       <c r="A47" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>11</v>
@@ -3231,16 +3234,16 @@
     </row>
     <row r="48" ht="131.25" spans="1:6">
       <c r="A48" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>75</v>
@@ -3251,19 +3254,19 @@
     </row>
     <row r="49" ht="150" spans="1:6">
       <c r="A49" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>11</v>
@@ -3271,19 +3274,19 @@
     </row>
     <row r="50" ht="131.25" spans="1:6">
       <c r="A50" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>11</v>
@@ -3291,19 +3294,19 @@
     </row>
     <row r="51" ht="131.25" spans="1:6">
       <c r="A51" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>11</v>
@@ -3311,19 +3314,19 @@
     </row>
     <row r="52" ht="131.25" spans="1:6">
       <c r="A52" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>11</v>
@@ -3331,19 +3334,19 @@
     </row>
     <row r="53" ht="131.25" spans="1:6">
       <c r="A53" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>11</v>
@@ -3351,19 +3354,19 @@
     </row>
     <row r="54" ht="131.25" spans="1:6">
       <c r="A54" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>11</v>
@@ -3371,19 +3374,19 @@
     </row>
     <row r="55" ht="150" spans="1:6">
       <c r="A55" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>11</v>
@@ -3391,17 +3394,17 @@
     </row>
     <row r="56" ht="131.25" spans="1:6">
       <c r="A56" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>11</v>
@@ -3409,19 +3412,19 @@
     </row>
     <row r="57" ht="150" spans="1:6">
       <c r="A57" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>239</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>11</v>

--- a/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
+++ b/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
@@ -357,7 +357,7 @@
 2. Mở giỏ hàng
 2. Nhấn checkout để sang trang chọn địa chỉ
 3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number &lt; 7</t>
+4. Nhập đầy đủ thông tin và nhập độ dài mobile quá ngắn</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -383,7 +383,7 @@
 2. Mở giỏ hàng
 2. Nhấn checkout để sang trang chọn địa chỉ
 3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number cận tối thiểu</t>
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number đúng tối thiểu</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -399,6 +399,9 @@
     <t>Hợp lệ</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>TC21</t>
   </si>
   <si>
@@ -409,7 +412,7 @@
 2. Mở giỏ hàng
 2. Nhấn checkout để sang trang chọn địa chỉ
 3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number = 8(độ dài trung bình)</t>
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number trung bình</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -455,7 +458,7 @@
 2. Mở giỏ hàng
 2. Nhấn checkout để sang trang chọn địa chỉ
 3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile numbertối đa</t>
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number đúng tối đa</t>
   </si>
   <si>
     <t>TC24</t>
@@ -468,13 +471,13 @@
 2. Mở giỏ hàng
 2. Nhấn checkout để sang trang chọn địa chỉ
 3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number &gt; 10</t>
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number quá dài</t>
   </si>
   <si>
     <t xml:space="preserve">
 Country: Viet Nam
 Name: Phan Hong Quan
-Mobile Number: 08673336977
+Mobile Number: 086733369777
 Zip Code: 10000
 Address: Tan Trieu, Thanh Tri, Ha Noi
 City: Ha Noi
@@ -504,9 +507,6 @@
   </si>
   <si>
     <t>Hiện thi thông báo lỗi</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>TC26</t>
@@ -1963,11 +1963,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2317,8 +2317,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -2732,22 +2732,22 @@
       <c r="E22" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>11</v>
+      <c r="F22" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" ht="150" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>90</v>
@@ -2758,16 +2758,16 @@
     </row>
     <row r="24" ht="150" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>90</v>
@@ -2778,13 +2778,13 @@
     </row>
     <row r="25" ht="150" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>65</v>
@@ -2798,16 +2798,16 @@
     </row>
     <row r="26" ht="150" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>85</v>
@@ -2818,62 +2818,62 @@
     </row>
     <row r="27" ht="131.25" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="14" t="s">
         <v>111</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" ht="150" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="14" t="s">
         <v>111</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="150" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>111</v>
+      <c r="F29" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="112.5" spans="1:6">
@@ -2912,8 +2912,8 @@
       <c r="E31" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>111</v>
+      <c r="F31" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" ht="131.25" spans="1:6">
@@ -3012,8 +3012,8 @@
       <c r="E36" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>111</v>
+      <c r="F36" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" ht="131.25" spans="1:6">
@@ -3032,8 +3032,8 @@
       <c r="E37" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>111</v>
+      <c r="F37" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" ht="131.25" spans="1:6">
@@ -3052,8 +3052,8 @@
       <c r="E38" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>111</v>
+      <c r="F38" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39" ht="131.25" spans="1:6">
@@ -3072,8 +3072,8 @@
       <c r="E39" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>111</v>
+      <c r="F39" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" ht="131.25" spans="1:6">
@@ -3092,8 +3092,8 @@
       <c r="E40" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>111</v>
+      <c r="F40" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41" ht="93.75" spans="1:6">
@@ -3248,8 +3248,8 @@
       <c r="E48" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>111</v>
+      <c r="F48" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="49" ht="150" spans="1:6">

--- a/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
+++ b/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="251">
   <si>
     <t>ID</t>
   </si>
@@ -402,6 +402,77 @@
     <t>FAIL</t>
   </si>
   <si>
+    <t>M, H</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ỗi xác thực sai khiến người dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không thể mua hàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ảnh hưởng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trực tiếp đến chức năng kinh doanh chính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phải được xử lý ngay lập tức</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>TC21</t>
   </si>
   <si>
@@ -509,6 +580,35 @@
     <t>Hiện thi thông báo lỗi</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cần sửa trong chu kỳ kế tiếp để tránh </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nhập sai dữ liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gây hậu quả về sau.</t>
+    </r>
+  </si>
+  <si>
     <t>TC26</t>
   </si>
   <si>
@@ -558,6 +658,9 @@
     <t>Không nhập được ký tự +</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>TC28</t>
   </si>
   <si>
@@ -606,6 +709,56 @@
   </si>
   <si>
     <t>Không chấp nhận kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đây là lỗi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đầu vào dữ liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có thể ảnh hưởng đến quá trình xử lý đơn hàng hoặc hậu cần, nên </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cần sửa trong chu kỳ phát triển kế tiếp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để đảm bảo độ tin cậy và an toàn của hệ thống.</t>
+    </r>
   </si>
   <si>
     <t>TC30</t>
@@ -1164,7 +1317,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,6 +1492,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1929,7 +2090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1966,8 +2127,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2028,6 +2192,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2315,13 +2486,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="28.8190476190476" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.5714285714286" style="2" customWidth="1"/>
@@ -2329,7 +2500,9 @@
     <col min="4" max="4" width="50.1809523809524" style="2" customWidth="1"/>
     <col min="5" max="5" width="48.4380952380952" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.0095238095238" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="15.0761904761905" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.4" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="100" customHeight="1" spans="1:6">
@@ -2716,7 +2889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="150" spans="1:6">
+    <row r="22" ht="300" spans="1:8">
       <c r="A22" s="9" t="s">
         <v>86</v>
       </c>
@@ -2735,19 +2908,25 @@
       <c r="F22" s="13" t="s">
         <v>91</v>
       </c>
+      <c r="G22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" ht="150" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>90</v>
@@ -2758,16 +2937,16 @@
     </row>
     <row r="24" ht="150" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>90</v>
@@ -2778,13 +2957,13 @@
     </row>
     <row r="25" ht="150" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>65</v>
@@ -2798,16 +2977,16 @@
     </row>
     <row r="26" ht="150" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>85</v>
@@ -2816,121 +2995,139 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" ht="131.25" spans="1:6">
+    <row r="27" ht="131.25" spans="1:8">
       <c r="A27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>111</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" ht="150" spans="1:6">
+      <c r="G27" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" ht="150" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" ht="150" spans="1:6">
+      <c r="G28" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" ht="150" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="14" t="s">
         <v>120</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>91</v>
       </c>
+      <c r="G29" s="14" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="30" ht="112.5" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" ht="150" spans="1:6">
+    <row r="31" ht="150" spans="1:8">
       <c r="A31" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>91</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="32" ht="131.25" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>11</v>
@@ -2938,19 +3135,19 @@
     </row>
     <row r="33" ht="150" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>11</v>
@@ -2958,19 +3155,19 @@
     </row>
     <row r="34" ht="206.25" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>11</v>
@@ -2978,36 +3175,36 @@
     </row>
     <row r="35" ht="112.5" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" ht="131.25" spans="1:6">
+    <row r="36" ht="131.25" spans="1:7">
       <c r="A36" s="9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>70</v>
@@ -3015,19 +3212,22 @@
       <c r="F36" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" ht="131.25" spans="1:6">
+      <c r="G36" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" ht="131.25" spans="1:7">
       <c r="A37" s="9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>75</v>
@@ -3035,76 +3235,88 @@
       <c r="F37" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" ht="131.25" spans="1:6">
+      <c r="G37" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" ht="131.25" spans="1:7">
       <c r="A38" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" ht="131.25" spans="1:6">
+      <c r="G38" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" ht="131.25" spans="1:7">
       <c r="A39" s="9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" ht="131.25" spans="1:6">
+      <c r="G39" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" ht="131.25" spans="1:7">
       <c r="A40" s="9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>91</v>
       </c>
+      <c r="G40" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="41" ht="93.75" spans="1:6">
       <c r="A41" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10" t="s">
@@ -3116,13 +3328,13 @@
     </row>
     <row r="42" ht="112.5" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10" t="s">
@@ -3134,19 +3346,19 @@
     </row>
     <row r="43" ht="131.25" spans="1:6">
       <c r="A43" s="9" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>11</v>
@@ -3154,16 +3366,16 @@
     </row>
     <row r="44" ht="131.25" spans="1:6">
       <c r="A44" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>75</v>
@@ -3174,19 +3386,19 @@
     </row>
     <row r="45" ht="131.25" spans="1:6">
       <c r="A45" s="9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>11</v>
@@ -3194,19 +3406,19 @@
     </row>
     <row r="46" ht="131.25" spans="1:6">
       <c r="A46" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>11</v>
@@ -3214,36 +3426,36 @@
     </row>
     <row r="47" ht="131.25" spans="1:6">
       <c r="A47" s="9" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" ht="131.25" spans="1:6">
+    <row r="48" ht="131.25" spans="1:7">
       <c r="A48" s="9" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>75</v>
@@ -3251,22 +3463,25 @@
       <c r="F48" s="13" t="s">
         <v>91</v>
       </c>
+      <c r="G48" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="49" ht="150" spans="1:6">
       <c r="A49" s="9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>11</v>
@@ -3274,19 +3489,19 @@
     </row>
     <row r="50" ht="131.25" spans="1:6">
       <c r="A50" s="9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>11</v>
@@ -3294,19 +3509,19 @@
     </row>
     <row r="51" ht="131.25" spans="1:6">
       <c r="A51" s="9" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>11</v>
@@ -3314,19 +3529,19 @@
     </row>
     <row r="52" ht="131.25" spans="1:6">
       <c r="A52" s="9" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>11</v>
@@ -3334,19 +3549,19 @@
     </row>
     <row r="53" ht="131.25" spans="1:6">
       <c r="A53" s="9" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>11</v>
@@ -3354,19 +3569,19 @@
     </row>
     <row r="54" ht="131.25" spans="1:6">
       <c r="A54" s="9" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>11</v>
@@ -3374,19 +3589,19 @@
     </row>
     <row r="55" ht="150" spans="1:6">
       <c r="A55" s="9" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>11</v>
@@ -3394,17 +3609,17 @@
     </row>
     <row r="56" ht="131.25" spans="1:6">
       <c r="A56" s="9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>11</v>
@@ -3412,19 +3627,19 @@
     </row>
     <row r="57" ht="150" spans="1:6">
       <c r="A57" s="9" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="E57" s="10" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>11</v>

--- a/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
+++ b/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="269">
   <si>
     <t>ID</t>
   </si>
@@ -300,6 +300,35 @@
     <t>TC17</t>
   </si>
   <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập country là kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập country là kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: @@#$%#(*$@
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không nhập được kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập name</t>
   </si>
   <si>
@@ -322,7 +351,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a name."</t>
   </si>
   <si>
-    <t>TC18</t>
+    <t>TC19</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập mobile number</t>
@@ -347,7 +376,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a mobile number."</t>
   </si>
   <si>
-    <t>TC19</t>
+    <t>TC20</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá ngắn</t>
@@ -373,7 +402,7 @@
     <t>Hiển thị thông báo cảnh báo :   "Mobile number must match {{range}} format."</t>
   </si>
   <si>
-    <t>TC20</t>
+    <t>TC21</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối thiểu</t>
@@ -399,13 +428,17 @@
     <t>Hợp lệ</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>M, H</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ỗi xác thực sai khiến người dùng </t>
     </r>
     <r>
@@ -473,7 +506,7 @@
     </r>
   </si>
   <si>
-    <t>TC21</t>
+    <t>TC22</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number trung bình</t>
@@ -496,7 +529,7 @@
 State: Thanh Tri</t>
   </si>
   <si>
-    <t>TC22</t>
+    <t>TC23</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number cận tối đa</t>
@@ -519,7 +552,7 @@
 State: Thanh Tri</t>
   </si>
   <si>
-    <t>TC23</t>
+    <t>TC24</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối đa</t>
@@ -532,7 +565,7 @@
 4. Nhập đầy đủ thông tin và nhập độ dài mobile number đúng tối đa</t>
   </si>
   <si>
-    <t>TC24</t>
+    <t>TC25</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá dài</t>
@@ -555,7 +588,7 @@
 State: Thanh Tri</t>
   </si>
   <si>
-    <t>TC25</t>
+    <t>TC26</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự . ở cuối</t>
@@ -584,6 +617,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Cần sửa trong chu kỳ kế tiếp để tránh </t>
     </r>
     <r>
@@ -609,7 +649,7 @@
     </r>
   </si>
   <si>
-    <t>TC26</t>
+    <t>TC27</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number chứa các kí tự chữ</t>
@@ -632,7 +672,7 @@
 State: Thanh Tri</t>
   </si>
   <si>
-    <t>TC27</t>
+    <t>TC28</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự + ở đầu</t>
@@ -661,7 +701,7 @@
     <t>L</t>
   </si>
   <si>
-    <t>TC28</t>
+    <t>TC29</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập zip code</t>
@@ -685,7 +725,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a Zip code."</t>
   </si>
   <si>
-    <t>TC29</t>
+    <t>TC30</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự đặc biệt</t>
@@ -715,6 +755,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Đây là lỗi </t>
     </r>
     <r>
@@ -761,7 +808,33 @@
     </r>
   </si>
   <si>
-    <t>TC30</t>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự chữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và zip code với các kí tự </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: winter
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không chấp nhận kí tự chữ</t>
+  </si>
+  <si>
+    <t>TC32</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập address</t>
@@ -786,7 +859,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide an address."</t>
   </si>
   <si>
-    <t>TC31</t>
+    <t>TC33</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &lt; 160</t>
@@ -802,7 +875,7 @@
     <t>Không hiện cảnh báo</t>
   </si>
   <si>
-    <t>TC32</t>
+    <t>TC34</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &gt; 160</t>
@@ -828,7 +901,7 @@
     <t>Không nhập được thêm nếu độ dài hơn 160</t>
   </si>
   <si>
-    <t>TC33</t>
+    <t>TC35</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập city</t>
@@ -852,7 +925,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a city."</t>
   </si>
   <si>
-    <t>TC34</t>
+    <t>TC36</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập country là khoảng trắng</t>
@@ -874,7 +947,7 @@
 City: Ha Noi</t>
   </si>
   <si>
-    <t>TC35</t>
+    <t>TC37</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập name là khoảng trắng</t>
@@ -896,7 +969,7 @@
 City: Ha Noi</t>
   </si>
   <si>
-    <t>TC36</t>
+    <t>TC38</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zipcode là khoảng trắng</t>
@@ -921,7 +994,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a zipcode."</t>
   </si>
   <si>
-    <t>TC37</t>
+    <t>TC39</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập address là khoảng trắng</t>
@@ -943,7 +1016,7 @@
 City: Ha Noi</t>
   </si>
   <si>
-    <t>TC38</t>
+    <t>TC40</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập city là khoảng trắng</t>
@@ -965,7 +1038,52 @@
 City: </t>
   </si>
   <si>
-    <t>TC39</t>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập city là kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập city là kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: @@#!</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập state là kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập state là kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: @@#!</t>
+  </si>
+  <si>
+    <t>TC43</t>
   </si>
   <si>
     <t>Kiểm thử phương thức giao hàng khi mua hàng</t>
@@ -978,7 +1096,7 @@
 4. Chọn phương thức giao hàng</t>
   </si>
   <si>
-    <t>TC40</t>
+    <t>TC44</t>
   </si>
   <si>
     <t>Kiểm thử phương thức thanh toán khi mua hàng</t>
@@ -992,7 +1110,7 @@
 5. Chọn phương thức thanh toán</t>
   </si>
   <si>
-    <t>TC41</t>
+    <t>TC45</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập đầy đủ thông tin</t>
@@ -1016,7 +1134,7 @@
     <t>Hiện thẻ vừa thêm</t>
   </si>
   <si>
-    <t>TC42</t>
+    <t>TC46</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Name</t>
@@ -1037,7 +1155,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC43</t>
+    <t>TC47</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Card Number</t>
@@ -1060,7 +1178,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter your card number"</t>
   </si>
   <si>
-    <t>TC44</t>
+    <t>TC48</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Expiry Month</t>
@@ -1083,7 +1201,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter an Expiry Month"</t>
   </si>
   <si>
-    <t>TC45</t>
+    <t>TC49</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Expiry Year</t>
@@ -1101,7 +1219,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter an Expiry Year"</t>
   </si>
   <si>
-    <t>TC46</t>
+    <t>TC50</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập Name là khoảng trắng</t>
@@ -1122,7 +1240,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC47</t>
+    <t>TC51</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập Card Number là khoảng trắng</t>
@@ -1146,7 +1264,7 @@
     <t>Không nhập được khoảng trắng</t>
   </si>
   <si>
-    <t>TC48</t>
+    <t>TC52</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập độ dài Card Number &lt; 16</t>
@@ -1170,7 +1288,7 @@
     <t>Hiển thị thông báo cảnh báo :   "  Please enter a valid sixteen digit card number."</t>
   </si>
   <si>
-    <t>TC49</t>
+    <t>TC53</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập độ dài Card Number &gt; 16</t>
@@ -1191,7 +1309,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC50</t>
+    <t>TC54</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà coupon không hợp lệ</t>
@@ -1212,7 +1330,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Invalid coupon."</t>
   </si>
   <si>
-    <t>TC51</t>
+    <t>TC55</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà độ dài coupon &lt; 10</t>
@@ -1233,7 +1351,7 @@
     <t>Hiển thị thông báo cảnh báo :  " Coupon code must be 10 characters long."</t>
   </si>
   <si>
-    <t>TC52</t>
+    <t>TC56</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà độ dài coupon &gt; 10</t>
@@ -1251,7 +1369,7 @@
     <t>n(XRwh7ZQrr</t>
   </si>
   <si>
-    <t>TC53</t>
+    <t>TC57</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà coupon hợp lệ</t>
@@ -1273,7 +1391,7 @@
     <t>Hiển thị thông báo :   "Your discount of 30% will be applied during checkout."</t>
   </si>
   <si>
-    <t>TC54</t>
+    <t>TC58</t>
   </si>
   <si>
     <t>Kiểm thử thanh toán thành công khi mua hàng</t>
@@ -1291,7 +1409,7 @@
     <t>Hiển thị thông báo :   "Thank you for your purchase!"</t>
   </si>
   <si>
-    <t>TC55</t>
+    <t>TC59</t>
   </si>
   <si>
     <t>Kiểm thử thanh toán thành công khi mua hàng với mã giảm giá hợp lệ</t>
@@ -2486,10 +2604,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -2829,7 +2947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" ht="131.25" spans="1:6">
+    <row r="19" ht="150" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>71</v>
       </c>
@@ -2845,111 +2963,111 @@
       <c r="E19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>11</v>
+      <c r="F19" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" ht="131.25" spans="1:6">
       <c r="A20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="131.25" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="150" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="150" spans="1:8">
+      <c r="A23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="150" spans="1:6">
-      <c r="A21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="300" spans="1:8">
-      <c r="A22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" ht="150" spans="1:6">
-      <c r="A23" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="G23" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>11</v>
+      <c r="H23" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24" ht="150" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>11</v>
@@ -2957,19 +3075,19 @@
     </row>
     <row r="25" ht="150" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -2977,117 +3095,117 @@
     </row>
     <row r="26" ht="150" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" ht="131.25" spans="1:8">
+    <row r="27" ht="150" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="F27" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="131.25" spans="1:8">
+      <c r="A28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H27" t="s">
+      <c r="B28" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="28" ht="150" spans="1:7">
-      <c r="A28" s="9" t="s">
+      <c r="C28" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="F28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>114</v>
+      <c r="H28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" ht="150" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G29" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" ht="150" spans="1:7">
+      <c r="A30" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" ht="112.5" spans="1:6">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" ht="150" spans="1:8">
+    </row>
+    <row r="31" ht="112.5" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>131</v>
       </c>
@@ -3103,34 +3221,34 @@
       <c r="E31" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" ht="150" spans="1:8">
+      <c r="A32" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H31" t="s">
+      <c r="B32" s="10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="32" ht="131.25" spans="1:6">
-      <c r="A32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="F32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="H32" t="s">
         <v>142</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="33" ht="150" spans="1:6">
@@ -3144,47 +3262,47 @@
         <v>145</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" ht="131.25" spans="1:6">
+      <c r="A34" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" ht="150" spans="1:6">
+      <c r="A35" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" ht="206.25" spans="1:6">
-      <c r="A34" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" ht="112.5" spans="1:6">
-      <c r="A35" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>156</v>
@@ -3193,7 +3311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" ht="131.25" spans="1:7">
+    <row r="36" ht="206.25" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>157</v>
       </c>
@@ -3207,218 +3325,218 @@
         <v>160</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" ht="131.25" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" ht="112.5" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="131.25" spans="1:7">
       <c r="A38" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="131.25" spans="1:7">
       <c r="A39" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="131.25" spans="1:7">
       <c r="A40" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" ht="93.75" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" ht="131.25" spans="1:7">
       <c r="A41" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="10"/>
+        <v>182</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="E41" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" ht="112.5" spans="1:6">
+        <v>152</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" ht="131.25" spans="1:7">
       <c r="A42" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="10"/>
+        <v>186</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="E42" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>11</v>
+        <v>166</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" ht="131.25" spans="1:6">
       <c r="A43" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" ht="131.25" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" ht="150" spans="1:6">
       <c r="A44" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" ht="131.25" spans="1:6">
+      <c r="F44" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" ht="93.75" spans="1:6">
       <c r="A45" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>196</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" ht="131.25" spans="1:6">
+    <row r="46" ht="112.5" spans="1:6">
       <c r="A46" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" s="10" t="s">
         <v>201</v>
       </c>
+      <c r="D46" s="10"/>
       <c r="E46" s="10" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>11</v>
@@ -3426,16 +3544,16 @@
     </row>
     <row r="47" ht="131.25" spans="1:6">
       <c r="A47" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>206</v>
@@ -3444,7 +3562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" ht="131.25" spans="1:7">
+    <row r="48" ht="131.25" spans="1:6">
       <c r="A48" s="9" t="s">
         <v>207</v>
       </c>
@@ -3458,16 +3576,13 @@
         <v>210</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" ht="150" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" ht="131.25" spans="1:6">
       <c r="A49" s="9" t="s">
         <v>211</v>
       </c>
@@ -3518,16 +3633,16 @@
         <v>223</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="F51" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" ht="131.25" spans="1:6">
+    <row r="52" ht="131.25" spans="1:7">
       <c r="A52" s="9" t="s">
         <v>225</v>
       </c>
@@ -3541,27 +3656,30 @@
         <v>228</v>
       </c>
       <c r="E52" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" ht="150" spans="1:6">
+      <c r="A53" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" ht="131.25" spans="1:6">
-      <c r="A53" s="9" t="s">
+      <c r="B53" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="D53" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>11</v>
@@ -3569,25 +3687,25 @@
     </row>
     <row r="54" ht="131.25" spans="1:6">
       <c r="A54" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="D54" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="E54" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="F54" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" ht="150" spans="1:6">
+    <row r="55" ht="131.25" spans="1:6">
       <c r="A55" s="9" t="s">
         <v>239</v>
       </c>
@@ -3601,7 +3719,7 @@
         <v>242</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>11</v>
@@ -3609,15 +3727,17 @@
     </row>
     <row r="56" ht="131.25" spans="1:6">
       <c r="A56" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="D56" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D56" s="10"/>
       <c r="E56" s="10" t="s">
         <v>247</v>
       </c>
@@ -3625,7 +3745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" ht="150" spans="1:6">
+    <row r="57" ht="131.25" spans="1:6">
       <c r="A57" s="9" t="s">
         <v>248</v>
       </c>
@@ -3636,12 +3756,90 @@
         <v>250</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F57" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" ht="131.25" spans="1:6">
+      <c r="A58" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" ht="150" spans="1:6">
+      <c r="A59" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" ht="131.25" spans="1:6">
+      <c r="A60" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" ht="150" spans="1:6">
+      <c r="A61" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>11</v>
       </c>
     </row>

--- a/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
+++ b/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18285"/>
+    <workbookView windowWidth="19200" windowHeight="18300"/>
   </bookViews>
   <sheets>
     <sheet name="Search Test Cases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="267">
   <si>
     <t>ID</t>
   </si>
@@ -50,7 +50,7 @@
     <t>Kiểm thử chức năng mua hàng</t>
   </si>
   <si>
-    <t>TC01</t>
+    <t>DH_01</t>
   </si>
   <si>
     <t>Kiểm thử thêm 1 sản phẩm vào giỏ hàng ở trang chủ</t>
@@ -66,7 +66,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>TC02</t>
+    <t>DH_02</t>
   </si>
   <si>
     <t>Kiểm thử thêm 1 sản phẩm nhiều lần vào giỏ hàng ở trang chủ</t>
@@ -79,7 +79,7 @@
     <t>Thấy sản phẩm vừa thêm ở giỏ hàng và đúng số lượng đã thêm</t>
   </si>
   <si>
-    <t>TC03</t>
+    <t>DH_03</t>
   </si>
   <si>
     <t>Kiểm thử thêm nhiều sản phẩm khác nhau vào giỏ hàng ở trang chủ</t>
@@ -92,7 +92,7 @@
     <t>Thấy các sản phẩm vừa thêm</t>
   </si>
   <si>
-    <t>TC04</t>
+    <t>DH_04</t>
   </si>
   <si>
     <t>Kiểm thử tăng số lượng sản phẩm trong giỏ hàng</t>
@@ -106,7 +106,7 @@
     <t>Thấy số lượng sản phẩm tăng</t>
   </si>
   <si>
-    <t>TC05</t>
+    <t>DH_05</t>
   </si>
   <si>
     <t>Kiểm thử giảm số lượng sản phẩm trong giỏ hàng</t>
@@ -120,7 +120,7 @@
     <t>Thấy số lượng sản phẩm giảm</t>
   </si>
   <si>
-    <t>TC06</t>
+    <t>DH_06</t>
   </si>
   <si>
     <t>Kiểm thử xóa một sản phẩm sản phẩm trong giỏ hàng</t>
@@ -134,7 +134,7 @@
     <t>Không thấy sản phẩm vừa xóa trong giỏ hàng</t>
   </si>
   <si>
-    <t>TC07</t>
+    <t>DH_07</t>
   </si>
   <si>
     <t>Kiểm thử xóa tất cả sản phẩm trong giỏ hàng</t>
@@ -148,7 +148,7 @@
     <t>Không thấy sản phẩm nào trong giỏ hàng</t>
   </si>
   <si>
-    <t>TC08</t>
+    <t>DH_08</t>
   </si>
   <si>
     <t>Kiểm thử cập nhật tổng tiền sau khi tăng số lượng sản phẩm</t>
@@ -157,7 +157,7 @@
     <t>Thấy tổng tiền tăng đúng</t>
   </si>
   <si>
-    <t>TC09</t>
+    <t>DH_09</t>
   </si>
   <si>
     <t>Kiểm thử cập nhật tổng tiền sau khi giảm số lượng sản phẩm</t>
@@ -171,7 +171,7 @@
     <t>Thấy tổng tiền giảm đúng</t>
   </si>
   <si>
-    <t>TC10</t>
+    <t>DH_10</t>
   </si>
   <si>
     <t>Kiểm thử cập nhật tổng tiền sau khi xóa một sản phẩm</t>
@@ -182,7 +182,7 @@
 3. Nhấn biểu tượng thùng rác </t>
   </si>
   <si>
-    <t>TC11</t>
+    <t>DH_11</t>
   </si>
   <si>
     <t>Kiểm thử cập nhật tổng tiền sau khi xóa tất cả sản phẩm</t>
@@ -191,7 +191,7 @@
     <t>Thấy tổng tiền bằng 0</t>
   </si>
   <si>
-    <t>TC12</t>
+    <t>DH_12</t>
   </si>
   <si>
     <t>Kiểm thử chọn địa chỉ khi mua hàng</t>
@@ -206,7 +206,7 @@
     <t>Nút continue được bật</t>
   </si>
   <si>
-    <t>TC13</t>
+    <t>DH_13</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không điền thông tin nào</t>
@@ -222,7 +222,7 @@
     <t>Không thể ấn nút Submit</t>
   </si>
   <si>
-    <t>TC14</t>
+    <t>DH_14</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mà không nhập state</t>
@@ -248,7 +248,7 @@
     <t>Thêm thành công địa chỉ mới</t>
   </si>
   <si>
-    <t>TC15</t>
+    <t>DH_15</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập đầy đủ thông tin</t>
@@ -272,7 +272,7 @@
 State: Thanh Tri</t>
   </si>
   <si>
-    <t>TC16</t>
+    <t>DH_16</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập country</t>
@@ -297,7 +297,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a country."</t>
   </si>
   <si>
-    <t>TC17</t>
+    <t>DH_17</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập country là kí tự đặc biệt</t>
@@ -326,7 +326,10 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>TC18</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>DH_18</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập name</t>
@@ -351,7 +354,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a name."</t>
   </si>
   <si>
-    <t>TC19</t>
+    <t>DH_19</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập mobile number</t>
@@ -376,7 +379,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a mobile number."</t>
   </si>
   <si>
-    <t>TC20</t>
+    <t>DH_20</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá ngắn</t>
@@ -402,7 +405,7 @@
     <t>Hiển thị thông báo cảnh báo :   "Mobile number must match {{range}} format."</t>
   </si>
   <si>
-    <t>TC21</t>
+    <t>DH_21</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối thiểu</t>
@@ -428,7 +431,380 @@
     <t>Hợp lệ</t>
   </si>
   <si>
-    <t>M, H</t>
+    <t>DH_22</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number trung bình</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number trung bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 08673336
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>DH_23</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number cận tối đa</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number cận tối đa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 086733369
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>DH_24</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối đa</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number đúng tối đa</t>
+  </si>
+  <si>
+    <t>DH_25</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá dài</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number quá dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 086733369777
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>DH_26</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự . ở cuối</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập mobile number với ký tự . ở cuối</t>
+  </si>
+  <si>
+    <t>Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 08673333.69
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hiện thi thông báo lỗi</t>
+  </si>
+  <si>
+    <t>DH_27</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number chứa các kí tự chữ</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập mobile number chứa các ký tự chữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 777e7
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>DH_28</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự + ở đầu</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập mobile number với ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: +11111111 
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không nhập được ký tự +</t>
+  </si>
+  <si>
+    <t>DH_29</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập zip code</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và không nhập zip code</t>
+  </si>
+  <si>
+    <t>Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cảnh báo :   " Please provide a Zip code."</t>
+  </si>
+  <si>
+    <t>DH_30</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và zip code với các kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: @@#!
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không chấp nhận kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Vì nếu hệ thống không cho nhập ZIP chứa ký tự đặc biệt nhưng không có cảnh báo hoặc xử lý không rõ ràng, thì đây là lỗi nhỏ về trải nghiệm người dùng.</t>
+  </si>
+  <si>
+    <t>DH_31</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự chữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và zip code với các kí tự </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: winter
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không chấp nhận kí tự chữ</t>
+  </si>
+  <si>
+    <t>Vì nếu hệ thống không cho nhập ZIP chứa ký tự chữ nhưng không có cảnh báo hoặc xử lý không rõ ràng, thì đây là lỗi nhỏ về trải nghiệm người dùng.</t>
+  </si>
+  <si>
+    <t>DH_32</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập address</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và không nhập address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cảnh báo :   " Please provide an address."</t>
+  </si>
+  <si>
+    <t>DH_33</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &lt; 160</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và độ dài address &lt; 160</t>
+  </si>
+  <si>
+    <t>Không hiện cảnh báo</t>
+  </si>
+  <si>
+    <t>DH_34</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &gt; 160</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và độ dài address &gt; 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: orem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an 
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không nhập được thêm nếu độ dài hơn 160</t>
+  </si>
+  <si>
+    <t>DH_35</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập city</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và không nhập city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cảnh báo :   " Please provide a city."</t>
+  </si>
+  <si>
+    <t>DH_36</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập country là khoảng trắng</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập country là khoảng trắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: 
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi</t>
+  </si>
+  <si>
+    <t>Trường Country thường dùng để tính phí ship, thuế, kiểm tra hợp lệ đơn hàng, nên nếu để trống mà không cảnh báo có thể gây hậu quả về sau.</t>
+  </si>
+  <si>
+    <t>DH_37</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập name là khoảng trắng</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập name là khoảng trắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: 
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi</t>
   </si>
   <si>
     <r>
@@ -439,7 +815,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ỗi xác thực sai khiến người dùng </t>
+      <t xml:space="preserve">Trường Country </t>
     </r>
     <r>
       <rPr>
@@ -450,7 +826,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>không thể mua hàng</t>
+      <t>thường dùng để tính phí ship, thuế, kiểm tra hợp lệ đơn hàng</t>
     </r>
     <r>
       <rPr>
@@ -460,516 +836,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, ảnh hưởng </t>
+      <t>, nên nếu để trống mà không cảnh báo có thể gây hậu quả về sau.</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trực tiếp đến chức năng kinh doanh chính</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>phải được xử lý ngay lập tức</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>TC22</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number trung bình</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number trung bình</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 08673336
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>TC23</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number cận tối đa</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number cận tối đa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 086733369
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>TC24</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối đa</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number đúng tối đa</t>
-  </si>
-  <si>
-    <t>TC25</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá dài</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number quá dài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 086733369777
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>TC26</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự . ở cuối</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập mobile number với ký tự . ở cuối</t>
-  </si>
-  <si>
-    <t>Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 08673333.69
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Hiện thi thông báo lỗi</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cần sửa trong chu kỳ kế tiếp để tránh </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nhập sai dữ liệu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> gây hậu quả về sau.</t>
-    </r>
-  </si>
-  <si>
-    <t>TC27</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number chứa các kí tự chữ</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập mobile number chứa các ký tự chữ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 777e7
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>TC28</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự + ở đầu</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập mobile number với ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: +11111111 
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Không nhập được ký tự +</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>TC29</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập zip code</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và không nhập zip code</t>
-  </si>
-  <si>
-    <t>Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo cảnh báo :   " Please provide a Zip code."</t>
-  </si>
-  <si>
-    <t>TC30</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và zip code với các kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: @@#!
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Không chấp nhận kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Đây là lỗi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>đầu vào dữ liệu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> có thể ảnh hưởng đến quá trình xử lý đơn hàng hoặc hậu cần, nên </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cần sửa trong chu kỳ phát triển kế tiếp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> để đảm bảo độ tin cậy và an toàn của hệ thống.</t>
-    </r>
-  </si>
-  <si>
-    <t>TC31</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự chữ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và zip code với các kí tự </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: winter
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Không chấp nhận kí tự chữ</t>
-  </si>
-  <si>
-    <t>TC32</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập address</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và không nhập address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: 10000
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo cảnh báo :   " Please provide an address."</t>
-  </si>
-  <si>
-    <t>TC33</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &lt; 160</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và độ dài address &lt; 160</t>
-  </si>
-  <si>
-    <t>Không hiện cảnh báo</t>
-  </si>
-  <si>
-    <t>TC34</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &gt; 160</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và độ dài address &gt; 160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: 10000
-Address: orem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an 
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Không nhập được thêm nếu độ dài hơn 160</t>
-  </si>
-  <si>
-    <t>TC35</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập city</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và không nhập city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo cảnh báo :   " Please provide a city."</t>
-  </si>
-  <si>
-    <t>TC36</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập country là khoảng trắng</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập country là khoảng trắng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: 
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi</t>
-  </si>
-  <si>
-    <t>TC37</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập name là khoảng trắng</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập name là khoảng trắng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: 
-Mobile Number: 0867333697
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi</t>
-  </si>
-  <si>
-    <t>TC38</t>
+  </si>
+  <si>
+    <t>DH_38</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zipcode là khoảng trắng</t>
@@ -994,7 +865,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please provide a zipcode."</t>
   </si>
   <si>
-    <t>TC39</t>
+    <t>DH_39</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập address là khoảng trắng</t>
@@ -1016,7 +887,7 @@
 City: Ha Noi</t>
   </si>
   <si>
-    <t>TC40</t>
+    <t>DH_40</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập city là khoảng trắng</t>
@@ -1038,7 +909,7 @@
 City: </t>
   </si>
   <si>
-    <t>TC41</t>
+    <t>DH_41</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập city là kí tự đặc biệt</t>
@@ -1060,7 +931,7 @@
 City: @@#!</t>
   </si>
   <si>
-    <t>TC42</t>
+    <t>DH_42</t>
   </si>
   <si>
     <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập state là kí tự đặc biệt</t>
@@ -1083,7 +954,7 @@
 State: @@#!</t>
   </si>
   <si>
-    <t>TC43</t>
+    <t>DH_43</t>
   </si>
   <si>
     <t>Kiểm thử phương thức giao hàng khi mua hàng</t>
@@ -1096,7 +967,7 @@
 4. Chọn phương thức giao hàng</t>
   </si>
   <si>
-    <t>TC44</t>
+    <t>DH_44</t>
   </si>
   <si>
     <t>Kiểm thử phương thức thanh toán khi mua hàng</t>
@@ -1110,7 +981,7 @@
 5. Chọn phương thức thanh toán</t>
   </si>
   <si>
-    <t>TC45</t>
+    <t>DH_45</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập đầy đủ thông tin</t>
@@ -1134,7 +1005,7 @@
     <t>Hiện thẻ vừa thêm</t>
   </si>
   <si>
-    <t>TC46</t>
+    <t>DH_46</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Name</t>
@@ -1155,7 +1026,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC47</t>
+    <t>DH_47</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Card Number</t>
@@ -1178,7 +1049,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter your card number"</t>
   </si>
   <si>
-    <t>TC48</t>
+    <t>DH_48</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Expiry Month</t>
@@ -1201,7 +1072,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter an Expiry Month"</t>
   </si>
   <si>
-    <t>TC49</t>
+    <t>DH_49</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà không nhập Expiry Year</t>
@@ -1219,7 +1090,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Please enter an Expiry Year"</t>
   </si>
   <si>
-    <t>TC50</t>
+    <t>DH_50</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập Name là khoảng trắng</t>
@@ -1240,7 +1111,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC51</t>
+    <t>DH_51</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập Card Number là khoảng trắng</t>
@@ -1264,7 +1135,7 @@
     <t>Không nhập được khoảng trắng</t>
   </si>
   <si>
-    <t>TC52</t>
+    <t>DH_52</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập độ dài Card Number &lt; 16</t>
@@ -1288,7 +1159,7 @@
     <t>Hiển thị thông báo cảnh báo :   "  Please enter a valid sixteen digit card number."</t>
   </si>
   <si>
-    <t>TC53</t>
+    <t>DH_53</t>
   </si>
   <si>
     <t>Kiểm thử thêm thẻ thanh toán mà nhập độ dài Card Number &gt; 16</t>
@@ -1309,7 +1180,7 @@
 Expiry Year: 2099</t>
   </si>
   <si>
-    <t>TC54</t>
+    <t>DH_54</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà coupon không hợp lệ</t>
@@ -1330,7 +1201,7 @@
     <t>Hiển thị thông báo cảnh báo :   " Invalid coupon."</t>
   </si>
   <si>
-    <t>TC55</t>
+    <t>DH_55</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà độ dài coupon &lt; 10</t>
@@ -1351,7 +1222,7 @@
     <t>Hiển thị thông báo cảnh báo :  " Coupon code must be 10 characters long."</t>
   </si>
   <si>
-    <t>TC56</t>
+    <t>DH_56</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà độ dài coupon &gt; 10</t>
@@ -1369,7 +1240,7 @@
     <t>n(XRwh7ZQrr</t>
   </si>
   <si>
-    <t>TC57</t>
+    <t>DH_57</t>
   </si>
   <si>
     <t>Kiểm thử nhập coupon khi mua hàng mà coupon hợp lệ</t>
@@ -1391,7 +1262,7 @@
     <t>Hiển thị thông báo :   "Your discount of 30% will be applied during checkout."</t>
   </si>
   <si>
-    <t>TC58</t>
+    <t>DH_58</t>
   </si>
   <si>
     <t>Kiểm thử thanh toán thành công khi mua hàng</t>
@@ -1409,7 +1280,7 @@
     <t>Hiển thị thông báo :   "Thank you for your purchase!"</t>
   </si>
   <si>
-    <t>TC59</t>
+    <t>DH_59</t>
   </si>
   <si>
     <t>Kiểm thử thanh toán thành công khi mua hàng với mã giảm giá hợp lệ</t>
@@ -2208,7 +2079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2248,8 +2119,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2606,8 +2487,8 @@
   <sheetPr/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -2947,7 +2828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" ht="150" spans="1:6">
+    <row r="19" ht="150" spans="1:7">
       <c r="A19" s="9" t="s">
         <v>71</v>
       </c>
@@ -2966,22 +2847,25 @@
       <c r="F19" s="13" t="s">
         <v>76</v>
       </c>
+      <c r="G19" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" ht="131.25" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>11</v>
@@ -2989,19 +2873,19 @@
     </row>
     <row r="21" ht="131.25" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>11</v>
@@ -3009,19 +2893,19 @@
     </row>
     <row r="22" ht="150" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>11</v>
@@ -3029,45 +2913,43 @@
     </row>
     <row r="23" ht="150" spans="1:8">
       <c r="A23" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>98</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" ht="150" spans="1:6">
       <c r="A24" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>11</v>
@@ -3075,19 +2957,19 @@
     </row>
     <row r="25" ht="150" spans="1:6">
       <c r="A25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -3095,19 +2977,19 @@
     </row>
     <row r="26" ht="150" spans="1:6">
       <c r="A26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>11</v>
@@ -3115,19 +2997,19 @@
     </row>
     <row r="27" ht="150" spans="1:6">
       <c r="A27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>11</v>
@@ -3135,91 +3017,89 @@
     </row>
     <row r="28" ht="131.25" spans="1:8">
       <c r="A28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" t="s">
-        <v>120</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" ht="150" spans="1:7">
       <c r="A29" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>124</v>
-      </c>
       <c r="E29" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" ht="150" spans="1:7">
       <c r="A30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" ht="112.5" spans="1:6">
       <c r="A31" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>11</v>
@@ -3227,65 +3107,71 @@
     </row>
     <row r="32" ht="150" spans="1:8">
       <c r="A32" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" ht="150" spans="1:8">
+      <c r="A33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H32" t="s">
+      <c r="E33" s="10" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="33" ht="150" spans="1:6">
-      <c r="A33" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>76</v>
       </c>
+      <c r="G33" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="34" ht="131.25" spans="1:6">
       <c r="A34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>11</v>
@@ -3293,19 +3179,19 @@
     </row>
     <row r="35" ht="150" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>11</v>
@@ -3313,19 +3199,19 @@
     </row>
     <row r="36" ht="206.25" spans="1:6">
       <c r="A36" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>11</v>
@@ -3333,36 +3219,36 @@
     </row>
     <row r="37" ht="112.5" spans="1:6">
       <c r="A37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="F37" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" ht="141.75" spans="1:8">
+      <c r="A38" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" ht="131.25" spans="1:7">
-      <c r="A38" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>70</v>
@@ -3370,114 +3256,120 @@
       <c r="F38" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" ht="131.25" spans="1:7">
+      <c r="G38" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" ht="135" spans="1:8">
       <c r="A39" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="E39" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>119</v>
+      <c r="G39" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="40" ht="131.25" spans="1:7">
       <c r="A40" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>119</v>
+      <c r="G40" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="41" ht="131.25" spans="1:7">
       <c r="A41" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>183</v>
-      </c>
       <c r="E41" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>119</v>
+      <c r="G41" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="42" ht="131.25" spans="1:7">
       <c r="A42" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>187</v>
-      </c>
       <c r="E42" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" ht="131.25" spans="1:6">
+      <c r="G42" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" ht="131.25" spans="1:7">
       <c r="A43" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>75</v>
@@ -3485,19 +3377,22 @@
       <c r="F43" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" ht="150" spans="1:6">
+      <c r="G43" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" ht="150" spans="1:7">
       <c r="A44" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>75</v>
@@ -3505,16 +3400,19 @@
       <c r="F44" s="13" t="s">
         <v>76</v>
       </c>
+      <c r="G44" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="45" ht="93.75" spans="1:6">
       <c r="A45" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
@@ -3526,13 +3424,13 @@
     </row>
     <row r="46" ht="112.5" spans="1:6">
       <c r="A46" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10" t="s">
@@ -3544,19 +3442,19 @@
     </row>
     <row r="47" ht="131.25" spans="1:6">
       <c r="A47" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>11</v>
@@ -3564,19 +3462,19 @@
     </row>
     <row r="48" ht="131.25" spans="1:6">
       <c r="A48" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="E48" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>11</v>
@@ -3584,19 +3482,19 @@
     </row>
     <row r="49" ht="131.25" spans="1:6">
       <c r="A49" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>11</v>
@@ -3604,19 +3502,19 @@
     </row>
     <row r="50" ht="131.25" spans="1:6">
       <c r="A50" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>11</v>
@@ -3624,19 +3522,19 @@
     </row>
     <row r="51" ht="131.25" spans="1:6">
       <c r="A51" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="D51" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>11</v>
@@ -3644,42 +3542,42 @@
     </row>
     <row r="52" ht="131.25" spans="1:7">
       <c r="A52" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>228</v>
-      </c>
       <c r="E52" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>119</v>
+      <c r="G52" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53" ht="150" spans="1:6">
       <c r="A53" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="D53" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>231</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>11</v>
@@ -3687,19 +3585,19 @@
     </row>
     <row r="54" ht="131.25" spans="1:6">
       <c r="A54" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="D54" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="E54" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>11</v>
@@ -3707,19 +3605,19 @@
     </row>
     <row r="55" ht="131.25" spans="1:6">
       <c r="A55" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="E55" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>11</v>
@@ -3727,19 +3625,19 @@
     </row>
     <row r="56" ht="131.25" spans="1:6">
       <c r="A56" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="D56" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>11</v>
@@ -3747,19 +3645,19 @@
     </row>
     <row r="57" ht="131.25" spans="1:6">
       <c r="A57" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="D57" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="E57" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>11</v>
@@ -3767,19 +3665,19 @@
     </row>
     <row r="58" ht="131.25" spans="1:6">
       <c r="A58" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="D58" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="E58" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>11</v>
@@ -3787,19 +3685,19 @@
     </row>
     <row r="59" ht="150" spans="1:6">
       <c r="A59" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="D59" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="E59" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>11</v>
@@ -3807,17 +3705,17 @@
     </row>
     <row r="60" ht="131.25" spans="1:6">
       <c r="A60" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>11</v>
@@ -3825,19 +3723,19 @@
     </row>
     <row r="61" ht="150" spans="1:6">
       <c r="A61" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="D61" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>11</v>

--- a/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
+++ b/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="18300"/>
+    <workbookView windowHeight="18285"/>
   </bookViews>
   <sheets>
     <sheet name="Search Test Cases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="273">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Mức độ lỗi</t>
   </si>
   <si>
     <t>Kiểm thử chức năng mua hàng</t>
@@ -63,7 +66,7 @@
     <t>Thấy sản phẩm vừa thêm ở giỏ hàng</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>PASS</t>
   </si>
   <si>
     <t>DH_02</t>
@@ -329,484 +332,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>DH_18</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập name</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và không nhập name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Mobile Number: 0867333697
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo cảnh báo :   " Please provide a name."</t>
-  </si>
-  <si>
-    <t>DH_19</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập mobile number</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và không nhập mobile number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo cảnh báo :   " Please provide a mobile number."</t>
-  </si>
-  <si>
-    <t>DH_20</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá ngắn</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile quá ngắn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 086733
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo cảnh báo :   "Mobile number must match {{range}} format."</t>
-  </si>
-  <si>
-    <t>DH_21</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối thiểu</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number đúng tối thiểu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Hợp lệ</t>
-  </si>
-  <si>
-    <t>DH_22</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number trung bình</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number trung bình</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 08673336
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>DH_23</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number cận tối đa</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number cận tối đa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 086733369
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>DH_24</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối đa</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number đúng tối đa</t>
-  </si>
-  <si>
-    <t>DH_25</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá dài</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập độ dài mobile number quá dài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 086733369777
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>DH_26</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự . ở cuối</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập mobile number với ký tự . ở cuối</t>
-  </si>
-  <si>
-    <t>Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 08673333.69
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Hiện thi thông báo lỗi</t>
-  </si>
-  <si>
-    <t>DH_27</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number chứa các kí tự chữ</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập mobile number chứa các ký tự chữ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 777e7
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>DH_28</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự + ở đầu</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập mobile number với ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: +11111111 
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Không nhập được ký tự +</t>
-  </si>
-  <si>
-    <t>DH_29</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập zip code</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và không nhập zip code</t>
-  </si>
-  <si>
-    <t>Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo cảnh báo :   " Please provide a Zip code."</t>
-  </si>
-  <si>
-    <t>DH_30</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và zip code với các kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: @@#!
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Không chấp nhận kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Vì nếu hệ thống không cho nhập ZIP chứa ký tự đặc biệt nhưng không có cảnh báo hoặc xử lý không rõ ràng, thì đây là lỗi nhỏ về trải nghiệm người dùng.</t>
-  </si>
-  <si>
-    <t>DH_31</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự chữ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và zip code với các kí tự </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: winter
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Không chấp nhận kí tự chữ</t>
-  </si>
-  <si>
-    <t>Vì nếu hệ thống không cho nhập ZIP chứa ký tự chữ nhưng không có cảnh báo hoặc xử lý không rõ ràng, thì đây là lỗi nhỏ về trải nghiệm người dùng.</t>
-  </si>
-  <si>
-    <t>DH_32</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập address</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và không nhập address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: 10000
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo cảnh báo :   " Please provide an address."</t>
-  </si>
-  <si>
-    <t>DH_33</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &lt; 160</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và độ dài address &lt; 160</t>
-  </si>
-  <si>
-    <t>Không hiện cảnh báo</t>
-  </si>
-  <si>
-    <t>DH_34</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &gt; 160</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và độ dài address &gt; 160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: 10000
-Address: orem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an 
-City: Ha Noi
-State: Thanh Tri</t>
-  </si>
-  <si>
-    <t>Không nhập được thêm nếu độ dài hơn 160</t>
-  </si>
-  <si>
-    <t>DH_35</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập city</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và không nhập city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo cảnh báo :   " Please provide a city."</t>
-  </si>
-  <si>
-    <t>DH_36</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập country là khoảng trắng</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập country là khoảng trắng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: 
-Name: Phan Hong Quan
-Mobile Number: 0867333697
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi</t>
-  </si>
-  <si>
-    <t>Trường Country thường dùng để tính phí ship, thuế, kiểm tra hợp lệ đơn hàng, nên nếu để trống mà không cảnh báo có thể gây hậu quả về sau.</t>
-  </si>
-  <si>
-    <t>DH_37</t>
-  </si>
-  <si>
-    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập name là khoảng trắng</t>
-  </si>
-  <si>
-    <t>1. Thêm sản phẩm vào giỏ hàng 
-2. Mở giỏ hàng
-2. Nhấn checkout để sang trang chọn địa chỉ
-3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
-4. Nhập đầy đủ thông tin và nhập name là khoảng trắng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Country: Viet Nam
-Name: 
-Mobile Number: 0867333697
-Zip Code: 10000
-Address: Tan Trieu, Thanh Tri, Ha Noi
-City: Ha Noi</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -815,7 +340,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Trường Country </t>
+      <t xml:space="preserve">Dữ liệu </t>
     </r>
     <r>
       <rPr>
@@ -826,7 +351,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>thường dùng để tính phí ship, thuế, kiểm tra hợp lệ đơn hàng</t>
+      <t>không hợp lệ</t>
     </r>
     <r>
       <rPr>
@@ -836,8 +361,492 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, nên nếu để trống mà không cảnh báo có thể gây hậu quả về sau.</t>
+      <t xml:space="preserve"> được lưu vào hệ thống.Gây sai sót trong xử lý đơn hàng, hiển thị thông tin, tra cứu, báo cáo.</t>
     </r>
+  </si>
+  <si>
+    <t>DH_18</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập name</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và không nhập name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cảnh báo :   " Please provide a name."</t>
+  </si>
+  <si>
+    <t>DH_19</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập mobile number</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và không nhập mobile number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cảnh báo :   " Please provide a mobile number."</t>
+  </si>
+  <si>
+    <t>DH_20</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá ngắn</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile quá ngắn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 086733
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cảnh báo :   "Mobile number must match {{range}} format."</t>
+  </si>
+  <si>
+    <t>DH_21</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối thiểu</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number đúng tối thiểu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hợp lệ</t>
+  </si>
+  <si>
+    <t>Dữ liệu hợp lệ bị từ chối khiến người dùng không thể tiếp tục đặt hàng. Gây ảnh hưởng đến trải nghiệm và luồng nghiệp vụ chính.</t>
+  </si>
+  <si>
+    <t>DH_22</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number trung bình</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number trung bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 08673336
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>DH_23</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number cận tối đa</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number cận tối đa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 086733369
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>DH_24</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number đúng tối đa</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number đúng tối đa</t>
+  </si>
+  <si>
+    <t>DH_25</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài mobile number quá dài</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập độ dài mobile number quá dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 086733369777
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>DH_26</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự . ở cuối</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập mobile number với ký tự . ở cuối</t>
+  </si>
+  <si>
+    <t>Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 08673333.69
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hiện thi thông báo lỗi</t>
+  </si>
+  <si>
+    <t>DH_27</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number chứa các kí tự chữ</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập mobile number chứa các ký tự chữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 777e7
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>DH_28</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập mobile number với ký tự + ở đầu</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập mobile number với ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: +11111111 
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không nhập được ký tự +</t>
+  </si>
+  <si>
+    <t>DH_29</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập zip code</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và không nhập zip code</t>
+  </si>
+  <si>
+    <t>Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cảnh báo :   " Please provide a Zip code."</t>
+  </si>
+  <si>
+    <t>DH_30</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và zip code với các kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: @@#!
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không chấp nhận kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Vì nếu hệ thống không cho nhập ZIP chứa ký tự đặc biệt nhưng không có cảnh báo hoặc xử lý không rõ ràng, thì đây là lỗi nhỏ về trải nghiệm người dùng.</t>
+  </si>
+  <si>
+    <t>DH_31</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập zip code với các kí tự chữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và zip code với các kí tự </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: winter
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không chấp nhận kí tự chữ</t>
+  </si>
+  <si>
+    <t>Vì nếu hệ thống không cho nhập ZIP chứa ký tự chữ nhưng không có cảnh báo hoặc xử lý không rõ ràng, thì đây là lỗi nhỏ về trải nghiệm người dùng.</t>
+  </si>
+  <si>
+    <t>DH_32</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập address</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và không nhập address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cảnh báo :   " Please provide an address."</t>
+  </si>
+  <si>
+    <t>DH_33</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &lt; 160</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và độ dài address &lt; 160</t>
+  </si>
+  <si>
+    <t>Không hiện cảnh báo</t>
+  </si>
+  <si>
+    <t>DH_34</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập độ dài address &gt; 160</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và độ dài address &gt; 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: orem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an 
+City: Ha Noi
+State: Thanh Tri</t>
+  </si>
+  <si>
+    <t>Không nhập được thêm nếu độ dài hơn 160</t>
+  </si>
+  <si>
+    <t>DH_35</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà không nhập city</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và không nhập city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cảnh báo :   " Please provide a city."</t>
+  </si>
+  <si>
+    <t>DH_36</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập country là khoảng trắng</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập country là khoảng trắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: 
+Name: Phan Hong Quan
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi</t>
+  </si>
+  <si>
+    <t>Trường Country thường dùng để tính phí ship, thuế, kiểm tra hợp lệ đơn hàng, nên nếu để trống mà không cảnh báo có thể gây hậu quả về sau.</t>
+  </si>
+  <si>
+    <t>DH_37</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập địa chỉ mua hàng mới mà nhập name là khoảng trắng</t>
+  </si>
+  <si>
+    <t>1. Thêm sản phẩm vào giỏ hàng 
+2. Mở giỏ hàng
+2. Nhấn checkout để sang trang chọn địa chỉ
+3. Nhấn Add New Address để sang trang điền thông tin địa chỉ 
+4. Nhập đầy đủ thông tin và nhập name là khoảng trắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Country: Viet Nam
+Name: 
+Mobile Number: 0867333697
+Zip Code: 10000
+Address: Tan Trieu, Thanh Tri, Ha Noi
+City: Ha Noi</t>
+  </si>
+  <si>
+    <t>Nếu hệ thống không trim (xóa khoảng trắng hai đầu) hoặc không validate ký tự, thì người dùng có thể bỏ qua kiểm tra bắt buộc một cách giả tạo. Điều này vi phạm yêu cầu về dữ liệu hợp lệ và có thể gây lỗi logic phía server.</t>
   </si>
   <si>
     <t>DH_38</t>
@@ -929,6 +938,9 @@
 Zip Code: 10000
 Address: Tan Trieu, Thanh Tri, Ha Noi
 City: @@#!</t>
+  </si>
+  <si>
+    <t>Trường City chấp nhận ký tự đặc biệt, gây rủi ro về dữ liệu địa chỉ và ảnh hưởng đến nghiệp vụ vận chuyển, xác thực</t>
   </si>
   <si>
     <t>DH_42</t>
@@ -954,6 +966,9 @@
 State: @@#!</t>
   </si>
   <si>
+    <t>Trường State chấp nhận ký tự đặc biệt, gây rủi ro về dữ liệu địa chỉ và ảnh hưởng đến nghiệp vụ vận chuyển, xác thực</t>
+  </si>
+  <si>
     <t>DH_43</t>
   </si>
   <si>
@@ -1109,6 +1124,9 @@
 Card Number: 4000056655665556
 Expiry Month: 12
 Expiry Year: 2099</t>
+  </si>
+  <si>
+    <t>Trường Name chấp nhận khoảng trắng mà không hiển thị cảnh báo hoặc ngăn chặn thao tác tiếp theo. Điều này không phù hợp với tiêu chuẩn nhập liệu cho thanh toán.</t>
   </si>
   <si>
     <t>DH_51</t>
@@ -1507,6 +1525,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1681,12 +1705,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1704,7 +1722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1722,7 +1740,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1737,7 +1755,33 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1752,7 +1796,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1761,7 +1805,9 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1769,8 +1815,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1778,10 +1828,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
         <color auto="1"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1822,9 +1872,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1955,7 +2003,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1967,108 +2015,108 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2079,7 +2127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2092,44 +2140,57 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2487,8 +2548,8 @@
   <sheetPr/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -2500,11 +2561,11 @@
     <col min="5" max="5" width="48.4380952380952" style="2" customWidth="1"/>
     <col min="6" max="6" width="38.0095238095238" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.0761904761905" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.4" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.8761904761905" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="100" customHeight="1" spans="1:6">
+    <row r="1" ht="100" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2523,1227 +2584,1308 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="100" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+    </row>
+    <row r="2" ht="100" customHeight="1" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-    </row>
-    <row r="3" ht="100" customHeight="1" spans="1:6">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" ht="100" customHeight="1" spans="1:7">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="100" customHeight="1" spans="1:6">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="100" customHeight="1" spans="1:7">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="100" customHeight="1" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" ht="100" customHeight="1" spans="1:7">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="100" customHeight="1" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" ht="100" customHeight="1" spans="1:7">
+      <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="100" customHeight="1" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="F6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" ht="100" customHeight="1" spans="1:7">
+      <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="100" customHeight="1" spans="1:6">
-      <c r="A8" s="9" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" ht="100" customHeight="1" spans="1:7">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" ht="100" customHeight="1" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" ht="100" customHeight="1" spans="1:7">
+      <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="100" customHeight="1" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" ht="100" customHeight="1" spans="1:7">
+      <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="100" customHeight="1" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="C10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" ht="100" customHeight="1" spans="1:7">
+      <c r="A11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" ht="100" customHeight="1" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="F11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" ht="100" customHeight="1" spans="1:7">
+      <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="100" customHeight="1" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" ht="100" customHeight="1" spans="1:7">
+      <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="75" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="F13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" ht="75" spans="1:7">
+      <c r="A14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="112.5" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="F14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" ht="112.5" spans="1:7">
+      <c r="A15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="131.25" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="F15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" ht="131.25" spans="1:7">
+      <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="150" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="E16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="F16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" ht="150" spans="1:7">
+      <c r="A17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="150" spans="1:6">
-      <c r="A18" s="9" t="s">
+      <c r="D17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="E17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" ht="150" spans="1:7">
+      <c r="A18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="150" spans="1:7">
-      <c r="A19" s="9" t="s">
+      <c r="E18" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="F18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" ht="150" spans="1:8">
+      <c r="A19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" ht="131.25" spans="1:6">
-      <c r="A20" s="9" t="s">
+      <c r="G19" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="H19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="10" t="s">
+    </row>
+    <row r="20" ht="131.25" spans="1:8">
+      <c r="A20" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="131.25" spans="1:6">
-      <c r="A21" s="9" t="s">
+      <c r="D20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="E20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="F20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" ht="131.25" spans="1:8">
+      <c r="A21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" ht="150" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="D21" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="E21" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="F21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" ht="150" spans="1:7">
+      <c r="A22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="C22" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="D22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" ht="150" spans="1:8">
-      <c r="A23" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" ht="150" spans="1:7">
+      <c r="A24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" ht="150" spans="1:7">
+      <c r="A25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" ht="150" spans="1:7">
+      <c r="A26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" ht="150" spans="1:7">
+      <c r="A27" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="F27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" ht="131.25" spans="1:8">
+      <c r="A28" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" ht="150" spans="1:8">
+      <c r="A29" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" ht="150" spans="1:8">
+      <c r="A30" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" ht="112.5" spans="1:7">
+      <c r="A31" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" ht="150" spans="1:8">
+      <c r="A32" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" ht="150" spans="1:8">
+      <c r="A33" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" ht="131.25" spans="1:7">
+      <c r="A34" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" ht="150" spans="1:7">
+      <c r="A35" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" ht="206.25" spans="1:7">
+      <c r="A36" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" ht="112.5" spans="1:7">
+      <c r="A37" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" ht="131.25" spans="1:8">
+      <c r="A38" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" ht="135" spans="1:8">
+      <c r="A39" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" ht="141.75" spans="1:8">
+      <c r="A40" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" ht="135" spans="1:8">
+      <c r="A41" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" ht="135" spans="1:8">
+      <c r="A42" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" ht="131.25" spans="1:8">
+      <c r="A43" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="F43" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" ht="150" spans="1:6">
-      <c r="A24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="150" spans="1:6">
-      <c r="A25" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" ht="150" spans="1:6">
-      <c r="A26" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="150" spans="1:6">
-      <c r="A27" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" ht="131.25" spans="1:8">
-      <c r="A28" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="G43" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" ht="150" spans="1:8">
+      <c r="A44" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="F44" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" ht="150" spans="1:7">
-      <c r="A29" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="14" t="s">
+      <c r="G44" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" ht="93.75" spans="1:7">
+      <c r="A45" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" ht="112.5" spans="1:7">
+      <c r="A46" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" ht="131.25" spans="1:7">
+      <c r="A47" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" ht="131.25" spans="1:7">
+      <c r="A48" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" ht="131.25" spans="1:7">
+      <c r="A49" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" ht="131.25" spans="1:7">
+      <c r="A50" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" ht="131.25" spans="1:7">
+      <c r="A51" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" ht="131.25" spans="1:8">
+      <c r="A52" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" ht="150" spans="1:7">
-      <c r="A30" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" ht="112.5" spans="1:6">
-      <c r="A31" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" ht="150" spans="1:8">
-      <c r="A32" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" ht="150" spans="1:8">
-      <c r="A33" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" ht="131.25" spans="1:6">
-      <c r="A34" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" ht="150" spans="1:6">
-      <c r="A35" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" ht="206.25" spans="1:6">
-      <c r="A36" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" ht="112.5" spans="1:6">
-      <c r="A37" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" ht="141.75" spans="1:8">
-      <c r="A38" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" ht="135" spans="1:8">
-      <c r="A39" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" ht="131.25" spans="1:7">
-      <c r="A40" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" ht="131.25" spans="1:7">
-      <c r="A41" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" ht="131.25" spans="1:7">
-      <c r="A42" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" ht="131.25" spans="1:7">
-      <c r="A43" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" ht="150" spans="1:7">
-      <c r="A44" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" ht="93.75" spans="1:6">
-      <c r="A45" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" ht="112.5" spans="1:6">
-      <c r="A46" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" ht="131.25" spans="1:6">
-      <c r="A47" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" ht="131.25" spans="1:6">
-      <c r="A48" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" ht="131.25" spans="1:6">
-      <c r="A49" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" ht="131.25" spans="1:6">
-      <c r="A50" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" ht="131.25" spans="1:6">
-      <c r="A51" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" ht="131.25" spans="1:7">
-      <c r="A52" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" ht="150" spans="1:6">
-      <c r="A53" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" ht="131.25" spans="1:6">
-      <c r="A54" s="9" t="s">
+      <c r="G52" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B54" s="10" t="s">
+    </row>
+    <row r="53" ht="150" spans="1:7">
+      <c r="A53" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="B53" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="C53" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="D53" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" ht="131.25" spans="1:6">
-      <c r="A55" s="9" t="s">
+      <c r="E53" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="F53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" ht="131.25" spans="1:7">
+      <c r="A54" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="B54" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="C54" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" ht="131.25" spans="1:6">
-      <c r="A56" s="9" t="s">
+      <c r="D54" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="E54" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="F54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" ht="131.25" spans="1:7">
+      <c r="A55" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="B55" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="C55" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" ht="131.25" spans="1:6">
-      <c r="A57" s="9" t="s">
+      <c r="D55" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="E55" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="16"/>
+    </row>
+    <row r="56" ht="131.25" spans="1:7">
+      <c r="A56" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="B56" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="C56" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="D56" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" ht="131.25" spans="1:6">
-      <c r="A58" s="9" t="s">
+      <c r="E56" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="F56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" ht="131.25" spans="1:7">
+      <c r="A57" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="B57" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="C57" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" ht="150" spans="1:6">
-      <c r="A59" s="9" t="s">
+      <c r="D57" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="E57" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="F57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" ht="131.25" spans="1:7">
+      <c r="A58" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="B58" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="C58" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" ht="131.25" spans="1:6">
-      <c r="A60" s="9" t="s">
+      <c r="D58" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="E58" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" ht="150" spans="1:7">
+      <c r="A59" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="B59" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10" t="s">
+      <c r="C59" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" ht="150" spans="1:6">
-      <c r="A61" s="9" t="s">
+      <c r="D59" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="E59" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="F59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" ht="131.25" spans="1:7">
+      <c r="A60" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="B60" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" ht="150" spans="1:7">
+      <c r="A61" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
+++ b/OWASP_JUICE_SHOP_CART_FEATURES_CYPRESS_TESTING_FINAL (4).xlsx
@@ -50,7 +50,7 @@
     <t>Mức độ lỗi</t>
   </si>
   <si>
-    <t>Kiểm thử chức năng mua hàng</t>
+    <t>Kiểm thử chức năng đặt hàng</t>
   </si>
   <si>
     <t>DH_01</t>
@@ -2548,8 +2548,8 @@
   <sheetPr/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
